--- a/Компетенции_по_шкале_DE.xlsx
+++ b/Компетенции_по_шкале_DE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276FD102-0119-4040-885E-D22B00B26CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66FA5F-360D-4E00-8B4A-049034B09CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -50,44 +50,6 @@
     <t>Детальное описание уровня</t>
   </si>
   <si>
-    <t>Нет знаний</t>
-  </si>
-  <si>
-    <t>Начальный уровень. 
-Осведомлен!</t>
-  </si>
-  <si>
-    <t>Поверхностные знания технологии\инструмента, минимальный опыт использования. Может выполнять элементарные задания под руководством наставника.</t>
-  </si>
-  <si>
-    <t>Развивающийся. 
-Знаю!</t>
-  </si>
-  <si>
-    <t>Базовые знания общих правил. Может применить инструмент\технологию в стандартных ситуациях (задачах). Испытывает сложности при решении нестандартных\нетипичных задачах. Обращается за консультацией и советом наставника (руководителя).</t>
-  </si>
-  <si>
-    <t>Квалифицированный. 
-Умею!</t>
-  </si>
-  <si>
-    <t>Знание и уверенное владение технологией\инструментом в полном объеме. Отвечает на сложные вопросы, комбинирует подходы и методы при решении задач. Способен поставить задачу другому и проверить ее исполнение. В нестандартных ситуациях \ при решении нетиповых задач может обращаться за советом более опытных коллег.</t>
-  </si>
-  <si>
-    <t>Профессиональный. 
-Могу научить!</t>
-  </si>
-  <si>
-    <t>Знание особенностей и нюансов технологии\инструмента. Отличное владение технологией/инструментом. Знание лучших отраслевых практик. Решает комплексные, нестандартные задачи в рамках данного производственного/бизнес процесса или предметной области. Может оценивает эффективность применения технологии и инструмента.</t>
-  </si>
-  <si>
-    <t>Экспертный. 
-Формирую новое знание!</t>
-  </si>
-  <si>
-    <t>Глубокое владение знаниями, инновационными подходами к решению задач любого уровня сложности (в т.ч. впервые появившиеся задачи), способность создавать свои собственные паттерны и библиотеки, решающие задачу. Готовность адаптировать либо разрабатывать корпоративные стандарты технологии (методологию, правила, стратегию применения) на уровне Компании.</t>
-  </si>
-  <si>
     <t>Копметенция/ уровень</t>
   </si>
   <si>
@@ -119,9 +81,6 @@
   </si>
   <si>
     <t>Scala</t>
-  </si>
-  <si>
-    <t>IDE</t>
   </si>
   <si>
     <t>Airflow</t>
@@ -522,12 +481,6 @@
 Писать линейные воркфлоу со стандартными действиями</t>
   </si>
   <si>
-    <t>NI-FI (проекты с Ni-Fi)</t>
-  </si>
-  <si>
-    <t>NI-FI (проекты без Ni-Fi)</t>
-  </si>
-  <si>
     <t>Умеет пользоваться логгером в коде приложения, 
 Умеет смотреть логи работающего приложения</t>
   </si>
@@ -864,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,13 +844,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1013,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1082,21 +1028,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1120,17 +1051,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1162,9 +1082,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1178,15 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1195,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1210,119 +1121,109 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1614,664 +1515,664 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="14" customWidth="1"/>
-    <col min="3" max="8" width="34.21875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="12"/>
+    <col min="1" max="1" width="4.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="11" customWidth="1"/>
+    <col min="3" max="8" width="34.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>2</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27">
+        <v>4</v>
+      </c>
+      <c r="H6" s="27">
+        <v>5</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27">
+        <v>4</v>
+      </c>
+      <c r="H8" s="27">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>7</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>8</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2</v>
-      </c>
-      <c r="F6" s="30">
-        <v>3</v>
-      </c>
-      <c r="G6" s="30">
-        <v>4</v>
-      </c>
-      <c r="H6" s="30">
-        <v>5</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30">
-        <v>2</v>
-      </c>
-      <c r="F8" s="30">
-        <v>3</v>
-      </c>
-      <c r="G8" s="30">
-        <v>4</v>
-      </c>
-      <c r="H8" s="30">
-        <v>5</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="F19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="H19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>2</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>3</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>9</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>10</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>12</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>14</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>16</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>17</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="G28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>4</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="H28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>5</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>18</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="E29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>19</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>20</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>6</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>7</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E31" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="F31" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>9</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>10</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>11</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>12</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>13</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>14</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>15</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>16</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>17</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="G31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>18</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>19</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>20</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H31" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2312,52 +2213,52 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2380,54 +2281,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2341,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,623 +2351,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41">
         <v>1</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="41">
         <v>2</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="41">
         <v>3</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="41">
         <v>3</v>
       </c>
-      <c r="H2" s="45">
-        <v>5</v>
-      </c>
-      <c r="I2" s="45">
+      <c r="H2" s="41">
+        <v>5</v>
+      </c>
+      <c r="I2" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="10">
-        <v>5</v>
-      </c>
-      <c r="H3" s="10">
-        <v>5</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>5</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="10">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="10">
-        <v>5</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="10">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="10">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>2.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>3.5</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>1.5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>2.5</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="10">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>4</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>4.5</v>
       </c>
-      <c r="H14" s="10">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>4</v>
       </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10">
-        <v>5</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>3</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>3</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>4</v>
       </c>
-      <c r="H17" s="10">
-        <v>5</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>4</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>4</v>
       </c>
-      <c r="H19" s="11">
-        <v>5</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8">
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>3</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>4</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>4</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>4</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>2</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>2</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>3</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>4</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3077,7 +2926,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,66 +2952,66 @@
       <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="58.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Компетенции_по_шкале_DE.xlsx
+++ b/Компетенции_по_шкале_DE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D66FA5F-360D-4E00-8B4A-049034B09CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8952DB-0D0B-4C8F-A761-1D9DA5CD0B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка компетенций" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="164">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -41,15 +41,9 @@
     <t>Как проявляется? (конкретные действия, навыки, умения)</t>
   </si>
   <si>
-    <t>Уровень компетенции</t>
-  </si>
-  <si>
     <t>Уровень</t>
   </si>
   <si>
-    <t>Детальное описание уровня</t>
-  </si>
-  <si>
     <t>Копметенция/ уровень</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expert </t>
-  </si>
-  <si>
-    <t>Soft</t>
   </si>
   <si>
     <t>Spark</t>
@@ -190,9 +181,6 @@
     <t>Основной язык программирования</t>
   </si>
   <si>
-    <t>Из Scala и Python выбираем одну компетенцию для ДИ и оцениваем её (инженер + PO). Знание второго языка должно быть не более, чем на 2 уровня ниже</t>
-  </si>
-  <si>
     <t>Умение использовать инструменты разработки</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
   </si>
   <si>
     <t>Создавать тесты для workflow</t>
-  </si>
-  <si>
-    <t>Из Airflow и Oozie на аттестацию идёт на выбор одна из тем, которая используется в текущем проекте</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -413,9 +398,6 @@
 - знает популярные библиотеки и фреймворки, умеет выбрать подходящий под свою задачу_x000D_</t>
   </si>
   <si>
-    <t>Опционально, если есть на проекте</t>
-  </si>
-  <si>
     <t>Обладает уверенными знаниями проекта/продукта._x000D_
 Делится знаниями с коллегами из других команд</t>
   </si>
@@ -817,7 +799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,14 +823,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -903,24 +877,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDD868"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -959,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -979,51 +941,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,82 +999,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,60 +1077,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,664 +1423,664 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="11" customWidth="1"/>
-    <col min="3" max="8" width="34.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="9"/>
+    <col min="1" max="1" width="4.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="8" customWidth="1"/>
+    <col min="3" max="8" width="34.21875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>4</v>
+      </c>
+      <c r="H6" s="24">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24">
+        <v>3</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="34" t="s">
+      <c r="E14" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>8</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>14</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27">
-        <v>2</v>
-      </c>
-      <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="27">
-        <v>4</v>
-      </c>
-      <c r="H6" s="27">
-        <v>5</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27">
-        <v>2</v>
-      </c>
-      <c r="F8" s="27">
-        <v>3</v>
-      </c>
-      <c r="G8" s="27">
-        <v>4</v>
-      </c>
-      <c r="H8" s="27">
-        <v>5</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="45" t="s">
+      <c r="E25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>15</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>16</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>3</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="45" t="s">
+      <c r="B27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>17</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>4</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>5</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="B28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="H28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>7</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>18</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="E29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>8</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>9</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>10</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>11</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="G29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>19</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>12</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="B30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>20</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>13</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>14</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>15</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>16</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>17</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>18</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>19</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>20</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H31" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2213,52 +2121,52 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2281,54 +2189,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2338,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,571 +2258,559 @@
     <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41">
-        <v>1</v>
-      </c>
-      <c r="D2" s="41">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38">
         <v>2</v>
       </c>
-      <c r="E2" s="41">
-        <v>3</v>
-      </c>
-      <c r="F2" s="41">
-        <v>3</v>
-      </c>
-      <c r="G2" s="41">
-        <v>3</v>
-      </c>
-      <c r="H2" s="41">
-        <v>5</v>
-      </c>
-      <c r="I2" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="E2" s="38">
+        <v>3</v>
+      </c>
+      <c r="F2" s="38">
+        <v>3</v>
+      </c>
+      <c r="G2" s="38">
+        <v>3</v>
+      </c>
+      <c r="H2" s="38">
+        <v>5</v>
+      </c>
+      <c r="I2" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="7">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>2.5</v>
       </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
         <v>3.5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>4</v>
       </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>1.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>2.5</v>
       </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="7">
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="7">
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="7">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>4.5</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="7">
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="7">
-        <v>5</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="7">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
         <v>4</v>
       </c>
-      <c r="H19" s="8">
-        <v>5</v>
-      </c>
-      <c r="I19" s="8">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="8">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5">
         <v>4</v>
       </c>
-      <c r="I20" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="8">
-        <v>3</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <v>4</v>
       </c>
-      <c r="I21" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>2</v>
       </c>
-      <c r="G22" s="8">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="I22" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2923,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,86 +2831,7 @@
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Компетенции_по_шкале_DE.xlsx
+++ b/Компетенции_по_шкале_DE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8952DB-0D0B-4C8F-A761-1D9DA5CD0B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D924694-F976-4095-B7E4-388C8016A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка компетенций" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -794,17 +794,28 @@
   <si>
     <t>Уровени постановки задач</t>
   </si>
+  <si>
+    <t>confidential</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,7 +1010,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1007,132 +1018,132 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1431,13 +1442,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
@@ -1447,13 +1458,13 @@
       <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="10" t="s">
         <v>128</v>
       </c>
@@ -1466,21 +1477,21 @@
       <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="D5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="24">
         <v>1</v>
       </c>
@@ -1512,8 +1523,8 @@
       <c r="A8" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -1558,10 +1569,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1625,10 +1636,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -1646,19 +1657,19 @@
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>154</v>
       </c>
       <c r="I14" s="14"/>
@@ -1679,13 +1690,13 @@
       <c r="E15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>142</v>
       </c>
       <c r="I15" s="14"/>
@@ -1706,13 +1717,13 @@
       <c r="E16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I16" s="14"/>
@@ -2248,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,33 +2297,41 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38">
+      <c r="A2" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="37">
         <v>1</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>2</v>
       </c>
-      <c r="E2" s="38">
-        <v>3</v>
-      </c>
-      <c r="F2" s="38">
-        <v>3</v>
-      </c>
-      <c r="G2" s="38">
-        <v>3</v>
-      </c>
-      <c r="H2" s="38">
-        <v>5</v>
-      </c>
-      <c r="I2" s="38">
+      <c r="E2" s="37">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37">
+        <v>3</v>
+      </c>
+      <c r="H2" s="37">
+        <v>5</v>
+      </c>
+      <c r="I2" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -2336,8 +2355,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -2361,8 +2384,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -2386,8 +2413,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -2411,8 +2442,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -2436,8 +2471,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -2461,8 +2500,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -2486,8 +2529,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
@@ -2511,8 +2558,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
@@ -2536,8 +2587,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
@@ -2561,8 +2616,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -2586,8 +2645,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
@@ -2611,8 +2674,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -2636,8 +2703,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
@@ -2661,8 +2732,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
@@ -2686,8 +2761,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
@@ -2711,8 +2790,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
@@ -2736,8 +2819,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
@@ -2761,8 +2848,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
@@ -2786,8 +2877,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
@@ -2821,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
